--- a/Data_files_csv/Immuno_markers_MS.xlsx
+++ b/Data_files_csv/Immuno_markers_MS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raymondtremblay/Dropbox/GitHub_Dropbox_Drive/GitHub/BIOL3740/Data_files_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B93771-79B6-5745-A840-A033F1B2EBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{659E9390-D980-B747-B53E-5748FCCE64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40960" yWindow="4300" windowWidth="27640" windowHeight="16940" xr2:uid="{D914ED5A-9E23-7C48-BE7B-FB026E140FE3}"/>
+    <workbookView xWindow="39020" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{D914ED5A-9E23-7C48-BE7B-FB026E140FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
